--- a/Visualization/results/CD1_processed_transients/all_datasets_transients.xlsx
+++ b/Visualization/results/CD1_processed_transients/all_datasets_transients.xlsx
@@ -1466,13 +1466,12 @@
   <sheetPr/>
   <dimension ref="A1:Z944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W$1:W$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W903" sqref="W$1:W$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="21" max="21" width="15.375" customWidth="1"/>
     <col min="22" max="22" width="21.5" customWidth="1"/>
     <col min="23" max="23" width="31.5" customWidth="1"/>
     <col min="24" max="24" width="96" customWidth="1"/>
